--- a/file/7409762/data_input.xlsx
+++ b/file/7409762/data_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14688" windowHeight="13595"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,33 +539,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,97 +578,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -680,14 +673,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,7 +1005,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1036,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>5600</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1047,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>6200</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1058,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>6400</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1069,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6800</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1080,7 +1073,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>7000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1091,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>7200</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1102,7 +1095,7 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>7600</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1113,7 +1106,7 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>7800</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1124,7 +1117,7 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>8000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1135,7 +1128,7 @@
         <v>58</v>
       </c>
       <c r="C11">
-        <v>8200</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1146,7 +1139,7 @@
         <v>61</v>
       </c>
       <c r="C12">
-        <v>8400</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1157,7 +1150,7 @@
         <v>124</v>
       </c>
       <c r="C13">
-        <v>8600</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1168,7 +1161,7 @@
         <v>250</v>
       </c>
       <c r="C14">
-        <v>8800</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1179,7 +1172,7 @@
         <v>220</v>
       </c>
       <c r="C15">
-        <v>9000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1190,7 +1183,7 @@
         <v>195</v>
       </c>
       <c r="C16">
-        <v>9200</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1201,7 +1194,7 @@
         <v>398</v>
       </c>
       <c r="C17">
-        <v>9400</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1212,7 +1205,7 @@
         <v>699</v>
       </c>
       <c r="C18">
-        <v>9600</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1223,7 +1216,7 @@
         <v>405</v>
       </c>
       <c r="C19">
-        <v>9800</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1234,7 +1227,7 @@
         <v>71</v>
       </c>
       <c r="C20">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1245,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>10200</v>
+        <v>10.2</v>
       </c>
     </row>
   </sheetData>
